--- a/COMPTA/Tarifs/Tarifs.xlsx
+++ b/COMPTA/Tarifs/Tarifs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/Tarifs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C36697D-11FE-9741-8004-CF57CEBC9B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664594A2-7B00-AC44-94DE-4C8C91BE7224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{3CCED888-42A1-C64A-AD58-0ED94002504A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{3CCED888-42A1-C64A-AD58-0ED94002504A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Matiere</t>
   </si>
@@ -52,17 +53,102 @@
   </si>
   <si>
     <t>1kg</t>
+  </si>
+  <si>
+    <t>Solde total</t>
+  </si>
+  <si>
+    <t>1.128,34 €</t>
+  </si>
+  <si>
+    <t>Investissements</t>
+  </si>
+  <si>
+    <t>Prix unitaire</t>
+  </si>
+  <si>
+    <t>Budget dépenses Décembre</t>
+  </si>
+  <si>
+    <t>Budget depenses Janvier</t>
+  </si>
+  <si>
+    <t>Budget depenses Fevrier</t>
+  </si>
+  <si>
+    <t>Budget depenses sur 3 mois</t>
+  </si>
+  <si>
+    <t>Budget depenses Février</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Matiere premiere</t>
+  </si>
+  <si>
+    <t>Bobines</t>
+  </si>
+  <si>
+    <t>- €</t>
+  </si>
+  <si>
+    <t>Nylon</t>
+  </si>
+  <si>
+    <t>Bois</t>
+  </si>
+  <si>
+    <t>Plexiglass</t>
+  </si>
+  <si>
+    <t>Site internet</t>
+  </si>
+  <si>
+    <t>Nom de domaine</t>
+  </si>
+  <si>
+    <t>Logiciel</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Publicite</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Materiel</t>
+  </si>
+  <si>
+    <t>Matériel technique</t>
+  </si>
+  <si>
+    <t>Accessoires</t>
+  </si>
+  <si>
+    <t>Pièces prototype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00000_)\ &quot;€&quot;_ ;_ * \(#,##0.00000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00000_)\ &quot;€&quot;_ ;_ * \(#,##0.00000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00000_)\ &quot;€&quot;_ ;_ * \(#,##0.00000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;?????_)\ &quot;€&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +163,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -86,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -94,15 +219,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -418,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A283E2A6-0D1E-214E-953C-771E97B45C7C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +704,7 @@
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -455,8 +730,19 @@
         <f>B2/750</f>
         <v>5.28E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>2.2176</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2*3</f>
+        <v>6.6528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -469,7 +755,7 @@
         <v>9.5200000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -485,4 +771,694 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467C4F27-D5D3-D14F-93F4-779CAA8D43A0}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29">
+        <f>SUM(E6,E14,E22,E17,E25)</f>
+        <v>203.95</v>
+      </c>
+      <c r="F5" s="29">
+        <f t="shared" ref="F5:I5" si="0">SUM(F6,F14,F22,F17,F25)</f>
+        <v>233.95</v>
+      </c>
+      <c r="G5" s="29">
+        <f t="shared" si="0"/>
+        <v>273.95</v>
+      </c>
+      <c r="H5" s="29">
+        <f>SUM(E5:G5)</f>
+        <v>711.84999999999991</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>383.95</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32">
+        <f>SUM(E7:E13)</f>
+        <v>118.95</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" ref="F6:I6" si="1">SUM(F7:F13)</f>
+        <v>118.95</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="1"/>
+        <v>118.95</v>
+      </c>
+      <c r="H6" s="34">
+        <f>SUM(E6:G6)</f>
+        <v>356.85</v>
+      </c>
+      <c r="I6" s="33">
+        <f>SUM(I7:I13)</f>
+        <v>118.95</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17">
+        <v>39.6</v>
+      </c>
+      <c r="E8" s="17">
+        <v>79.2</v>
+      </c>
+      <c r="F8" s="17">
+        <v>79.2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>79.2</v>
+      </c>
+      <c r="H8" s="17">
+        <f>SUM(E8:G8)</f>
+        <v>237.60000000000002</v>
+      </c>
+      <c r="I8" s="19">
+        <v>79.2</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="17">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <f>SUM(E9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <f>SUM(E10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="17">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17">
+        <v>30</v>
+      </c>
+      <c r="F12" s="17">
+        <v>30</v>
+      </c>
+      <c r="G12" s="17">
+        <v>30</v>
+      </c>
+      <c r="H12" s="17">
+        <f>SUM(E12:G12)</f>
+        <v>90</v>
+      </c>
+      <c r="I12" s="19">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17">
+        <v>9.75</v>
+      </c>
+      <c r="E13" s="17">
+        <v>9.75</v>
+      </c>
+      <c r="F13" s="17">
+        <v>9.75</v>
+      </c>
+      <c r="G13" s="17">
+        <v>9.75</v>
+      </c>
+      <c r="H13" s="17">
+        <f>SUM(E13:G13)</f>
+        <v>29.25</v>
+      </c>
+      <c r="I13" s="19">
+        <v>9.75</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32">
+        <f>SUM(E15:E16)</f>
+        <v>40</v>
+      </c>
+      <c r="F14" s="32">
+        <f t="shared" ref="F14:I14" si="2">SUM(F15:F16)</f>
+        <v>25</v>
+      </c>
+      <c r="G14" s="32">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H14" s="34">
+        <f>SUM(E14:G14)</f>
+        <v>90</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="17">
+        <v>15</v>
+      </c>
+      <c r="E15" s="17">
+        <v>15</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
+        <f>SUM(E15:G15)</f>
+        <v>15</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="17">
+        <v>25</v>
+      </c>
+      <c r="E16" s="17">
+        <v>25</v>
+      </c>
+      <c r="F16" s="17">
+        <v>25</v>
+      </c>
+      <c r="G16" s="17">
+        <v>25</v>
+      </c>
+      <c r="H16" s="17">
+        <f>SUM(E16:G16)</f>
+        <v>75</v>
+      </c>
+      <c r="I16" s="19">
+        <v>25</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32">
+        <f>SUM(E18:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <f t="shared" ref="F17:I17" si="3">SUM(F18:F21)</f>
+        <v>30</v>
+      </c>
+      <c r="G17" s="32">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="H17" s="34">
+        <f>SUM(E17:G17)</f>
+        <v>100</v>
+      </c>
+      <c r="I17" s="33">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="17">
+        <v>5</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17">
+        <f>SUM(E19:G19)</f>
+        <v>10</v>
+      </c>
+      <c r="I19" s="19">
+        <v>30</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="17">
+        <v>5</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="17">
+        <v>20</v>
+      </c>
+      <c r="G20" s="17">
+        <v>40</v>
+      </c>
+      <c r="H20" s="17">
+        <f>SUM(E20:G20)</f>
+        <v>60</v>
+      </c>
+      <c r="I20" s="19">
+        <v>100</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="17">
+        <v>5</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="17">
+        <v>10</v>
+      </c>
+      <c r="G21" s="17">
+        <v>20</v>
+      </c>
+      <c r="H21" s="17">
+        <f>SUM(E21:G21)</f>
+        <v>30</v>
+      </c>
+      <c r="I21" s="19">
+        <v>50</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32">
+        <f>SUM(E23:E24)</f>
+        <v>30</v>
+      </c>
+      <c r="F22" s="32">
+        <f t="shared" ref="F22:I22" si="4">SUM(F23:F24)</f>
+        <v>30</v>
+      </c>
+      <c r="G22" s="32">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H22" s="34">
+        <f>SUM(E22:G22)</f>
+        <v>90</v>
+      </c>
+      <c r="I22" s="35">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="17">
+        <v>5</v>
+      </c>
+      <c r="E23" s="17">
+        <v>30</v>
+      </c>
+      <c r="F23" s="17">
+        <v>30</v>
+      </c>
+      <c r="G23" s="17">
+        <v>30</v>
+      </c>
+      <c r="H23" s="17">
+        <f>SUM(E23:G23)</f>
+        <v>90</v>
+      </c>
+      <c r="I23" s="18">
+        <v>30</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32">
+        <f>SUM(E26)</f>
+        <v>15</v>
+      </c>
+      <c r="F25" s="32">
+        <f t="shared" ref="F25:I25" si="5">SUM(F26)</f>
+        <v>30</v>
+      </c>
+      <c r="G25" s="32">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="H25" s="34">
+        <f>SUM(E25:G25)</f>
+        <v>75</v>
+      </c>
+      <c r="I25" s="33">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23">
+        <v>5</v>
+      </c>
+      <c r="E26" s="23">
+        <v>15</v>
+      </c>
+      <c r="F26" s="23">
+        <v>30</v>
+      </c>
+      <c r="G26" s="23">
+        <v>30</v>
+      </c>
+      <c r="H26" s="23">
+        <f>SUM(E26:G26)</f>
+        <v>75</v>
+      </c>
+      <c r="I26" s="25">
+        <v>30</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/COMPTA/Tarifs/Tarifs.xlsx
+++ b/COMPTA/Tarifs/Tarifs.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/Tarifs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664594A2-7B00-AC44-94DE-4C8C91BE7224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095A5E2E-5164-394A-9D6B-F61A1625A060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{3CCED888-42A1-C64A-AD58-0ED94002504A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Matiere</t>
   </si>
@@ -143,10 +143,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00000_)\ &quot;€&quot;_ ;_ * \(#,##0.00000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00000_)\ &quot;€&quot;_ ;_ * \(#,##0.00000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;?????_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_)\ &quot;€&quot;_ ;_ * \(#,##0.0000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0.0000_)\ &quot;€&quot;_ ;_ * \(#,##0.0000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;????_)\ &quot;€&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -341,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -378,6 +380,8 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -692,93 +696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A283E2A6-0D1E-214E-953C-771E97B45C7C}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39.6</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2">
-        <f>B2/750</f>
-        <v>5.28E-2</v>
-      </c>
-      <c r="E2">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3">
-        <f>D2*E2</f>
-        <v>2.2176</v>
-      </c>
-      <c r="G2" s="3">
-        <f>F2*3</f>
-        <v>6.6528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D4" si="0">B3/750</f>
-        <v>9.5200000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>101.94</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13591999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467C4F27-D5D3-D14F-93F4-779CAA8D43A0}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,7 +822,7 @@
         <v>118.95</v>
       </c>
       <c r="F6" s="32">
-        <f t="shared" ref="F6:I6" si="1">SUM(F7:F13)</f>
+        <f t="shared" ref="F6:G6" si="1">SUM(F7:F13)</f>
         <v>118.95</v>
       </c>
       <c r="G6" s="32">
@@ -1045,7 +967,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="17">
-        <f>SUM(E12:G12)</f>
+        <f t="shared" ref="H12:H17" si="2">SUM(E12:G12)</f>
         <v>90</v>
       </c>
       <c r="I12" s="19">
@@ -1072,7 +994,7 @@
         <v>9.75</v>
       </c>
       <c r="H13" s="17">
-        <f>SUM(E13:G13)</f>
+        <f t="shared" si="2"/>
         <v>29.25</v>
       </c>
       <c r="I13" s="19">
@@ -1092,19 +1014,19 @@
         <v>40</v>
       </c>
       <c r="F14" s="32">
-        <f t="shared" ref="F14:I14" si="2">SUM(F15:F16)</f>
+        <f t="shared" ref="F14:I14" si="3">SUM(F15:F16)</f>
         <v>25</v>
       </c>
       <c r="G14" s="32">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H14" s="34">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="H14" s="34">
-        <f>SUM(E14:G14)</f>
         <v>90</v>
       </c>
       <c r="I14" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="J14" s="4"/>
@@ -1128,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="17">
-        <f>SUM(E15:G15)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I15" s="19">
@@ -1155,7 +1077,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="17">
-        <f>SUM(E16:G16)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="I16" s="19">
@@ -1175,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="32">
-        <f t="shared" ref="F17:I17" si="3">SUM(F18:F21)</f>
+        <f t="shared" ref="F17:I17" si="4">SUM(F18:F21)</f>
         <v>30</v>
       </c>
       <c r="G17" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="H17" s="34">
-        <f>SUM(E17:G17)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="I17" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="J17" s="4"/>
@@ -1299,11 +1221,11 @@
         <v>30</v>
       </c>
       <c r="F22" s="32">
-        <f t="shared" ref="F22:I22" si="4">SUM(F23:F24)</f>
+        <f t="shared" ref="F22:I22" si="5">SUM(F23:F24)</f>
         <v>30</v>
       </c>
       <c r="G22" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="H22" s="34">
@@ -1311,7 +1233,7 @@
         <v>90</v>
       </c>
       <c r="I22" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="J22" s="4"/>
@@ -1367,11 +1289,11 @@
         <v>15</v>
       </c>
       <c r="F25" s="32">
-        <f t="shared" ref="F25:I25" si="5">SUM(F26)</f>
+        <f t="shared" ref="F25:I25" si="6">SUM(F26)</f>
         <v>30</v>
       </c>
       <c r="G25" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H25" s="34">
@@ -1379,7 +1301,7 @@
         <v>75</v>
       </c>
       <c r="I25" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="J25" s="4"/>
@@ -1461,4 +1383,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A283E2A6-0D1E-214E-953C-771E97B45C7C}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39.6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <f>B2/750</f>
+        <v>5.28E-2</v>
+      </c>
+      <c r="E2">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>2.2176</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2*3</f>
+        <v>6.6528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D4" si="0">B3/750</f>
+        <v>9.5200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>101.94</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13591999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="D5" s="36">
+        <f>B5/750</f>
+        <v>8.7200000000000014E-2</v>
+      </c>
+      <c r="E5" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/COMPTA/Tarifs/Tarifs.xlsx
+++ b/COMPTA/Tarifs/Tarifs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumeschegg/Desktop/HujaTech/COMPTA/Tarifs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095A5E2E-5164-394A-9D6B-F61A1625A060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8B168-7E88-8144-9313-363CB4F9C47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{3CCED888-42A1-C64A-AD58-0ED94002504A}"/>
   </bookViews>
@@ -147,8 +147,8 @@
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00000_)\ &quot;€&quot;_ ;_ * \(#,##0.00000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00000_)\ &quot;€&quot;_ ;_ * \(#,##0.00000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;?????_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_)\ &quot;€&quot;_ ;_ * \(#,##0.0000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="173" formatCode="_ * #,##0.0000_)\ &quot;€&quot;_ ;_ * \(#,##0.0000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;????_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.0000_)\ &quot;€&quot;_ ;_ * \(#,##0.0000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.0000_)\ &quot;€&quot;_ ;_ * \(#,##0.0000\)\ &quot;€&quot;_ ;_ * &quot;-&quot;????_)\ &quot;€&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -380,8 +380,8 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1387,18 +1387,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A283E2A6-0D1E-214E-953C-771E97B45C7C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1424,19 +1425,11 @@
         <f>B2/750</f>
         <v>5.28E-2</v>
       </c>
-      <c r="E2">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3">
-        <f>D2*E2</f>
-        <v>2.2176</v>
-      </c>
-      <c r="G2" s="3">
-        <f>F2*3</f>
-        <v>6.6528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1448,8 +1441,9 @@
         <f t="shared" ref="D3:D4" si="0">B3/750</f>
         <v>9.5200000000000007E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1456,7 @@
         <v>0.13591999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
